--- a/PROPERTIES/MONICA/MONICA2025.xlsx
+++ b/PROPERTIES/MONICA/MONICA2025.xlsx
@@ -687,7 +687,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -800,11 +800,19 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <u val="single"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="Georgia"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -930,7 +938,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1187,6 +1195,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3477,8 +3489,8 @@
   </sheetPr>
   <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F147" activeCellId="0" sqref="F147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E105" activeCellId="0" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4476,7 +4488,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="34" t="n">
+      <c r="D35" s="63" t="n">
         <f aca="false">SUM(D3:D34)</f>
         <v>173500</v>
       </c>
@@ -4499,7 +4511,6 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4521,7 +4532,6 @@
         <v>64</v>
       </c>
       <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
       <c r="E37" s="13"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4826,7 +4836,6 @@
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
       <c r="E48" s="20"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4846,7 +4855,6 @@
       <c r="A49" s="23"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
       <c r="E49" s="20"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -4866,7 +4874,6 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -4886,7 +4893,6 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -4908,7 +4914,6 @@
         <v>81</v>
       </c>
       <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
       <c r="E52" s="13"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -5183,7 +5188,6 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -5203,7 +5207,6 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -5225,7 +5228,6 @@
         <v>98</v>
       </c>
       <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
       <c r="E64" s="13"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -5898,7 +5900,6 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5918,7 +5919,6 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5940,7 +5940,6 @@
         <v>142</v>
       </c>
       <c r="C90" s="36"/>
-      <c r="D90" s="37"/>
       <c r="E90" s="13"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5969,7 +5968,9 @@
       <c r="D91" s="12" t="n">
         <v>11000</v>
       </c>
-      <c r="E91" s="20"/>
+      <c r="E91" s="20" t="n">
+        <v>11000</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -6285,9 +6286,11 @@
         <v>163</v>
       </c>
       <c r="D102" s="53" t="n">
-        <v>11000</v>
-      </c>
-      <c r="E102" s="14"/>
+        <v>10000</v>
+      </c>
+      <c r="E102" s="14" t="n">
+        <v>10000</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -6370,7 +6373,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="51" t="n">
         <f aca="false">SUM(D91:D104)</f>
-        <v>156000</v>
+        <v>155000</v>
       </c>
       <c r="E105" s="51"/>
       <c r="F105" s="1"/>
@@ -6391,7 +6394,6 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -6411,7 +6413,6 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -6431,7 +6432,6 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -6453,7 +6453,6 @@
         <v>168</v>
       </c>
       <c r="C109" s="36"/>
-      <c r="D109" s="37"/>
       <c r="E109" s="13"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -7100,7 +7099,6 @@
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -7120,7 +7118,6 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="58"/>
       <c r="E133" s="58"/>
       <c r="F133" s="58"/>
       <c r="G133" s="1"/>
@@ -7142,12 +7139,12 @@
       <c r="C134" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="D134" s="60" t="n">
-        <v>713500</v>
-      </c>
-      <c r="E134" s="63" t="n">
+      <c r="D134" s="64" t="n">
+        <v>781000</v>
+      </c>
+      <c r="E134" s="51" t="n">
         <f aca="false">SUM(E4:E130)</f>
-        <v>421000</v>
+        <v>442000</v>
       </c>
       <c r="F134" s="61"/>
       <c r="G134" s="1"/>
@@ -7167,7 +7164,6 @@
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="59"/>
-      <c r="D135" s="61"/>
       <c r="E135" s="61"/>
       <c r="F135" s="61"/>
       <c r="G135" s="1"/>
@@ -7189,9 +7185,6 @@
       <c r="C136" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="D136" s="60" t="n">
-        <v>35675</v>
-      </c>
       <c r="E136" s="60"/>
       <c r="F136" s="61"/>
       <c r="G136" s="1"/>
@@ -7211,7 +7204,6 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="59"/>
-      <c r="D137" s="61"/>
       <c r="E137" s="61"/>
       <c r="F137" s="61"/>
       <c r="G137" s="1"/>
@@ -7233,9 +7225,6 @@
       <c r="C138" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D138" s="60" t="n">
-        <v>677825</v>
-      </c>
       <c r="E138" s="60"/>
       <c r="F138" s="61"/>
       <c r="G138" s="1"/>
